--- a/main/xls/area.xlsx
+++ b/main/xls/area.xlsx
@@ -16,48 +16,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>楼层名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>B栋2楼作业大厅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(外包）</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B栋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼作业大厅</t>
-    </r>
+    <t>B栋3楼作业大厅</t>
+  </si>
+  <si>
+    <t>B栋3楼管理座席</t>
+  </si>
+  <si>
+    <t>B栋4楼作业大厅</t>
+  </si>
+  <si>
+    <t>B栋4楼管理座席</t>
+  </si>
+  <si>
+    <t>C栋3楼作业大厅</t>
+  </si>
+  <si>
+    <t>C栋3楼管理坐席</t>
+  </si>
+  <si>
+    <t>B栋3楼仓库</t>
+  </si>
+  <si>
+    <t>B栋1楼作业大厅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B栋1楼管理座席</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B栋1培训教室（大）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B栋1培训教室（小）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B栋2楼作业大厅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -65,18 +67,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>B栋3楼作业大厅</t>
-  </si>
-  <si>
-    <t>B栋3楼管理座席</t>
-  </si>
-  <si>
-    <t>B栋4楼作业大厅</t>
-  </si>
-  <si>
-    <t>B栋4楼管理座席</t>
-  </si>
-  <si>
     <t>C栋1楼监控室</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -89,16 +79,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>C栋2楼（技术保障）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>C栋2楼机房</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>C栋3楼作业大厅</t>
-  </si>
-  <si>
-    <t>C栋3楼管理坐席</t>
-  </si>
-  <si>
     <t>C栋4楼（副总办公室）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -107,29 +95,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>C栋</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>楼（技术保障）</t>
-    </r>
+    <t>C栋5楼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -141,15 +107,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>B栋2楼仓库</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B栋3楼仓库</t>
-  </si>
-  <si>
     <t>E栋3楼仓库</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -191,7 +154,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,36 +170,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,58 +210,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -632,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,114 +543,137 @@
     <col min="1" max="1" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+    <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+    <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
-        <v>21</v>
+    <row r="26" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
